--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_14_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3582604.821187369</v>
+        <v>3577191.542205321</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9459254.400933312</v>
+        <v>9459254.400933318</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>687060.9364600729</v>
+        <v>687060.9364600778</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7662269.258164896</v>
+        <v>7662269.258164895</v>
       </c>
     </row>
     <row r="11">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.309829763041574</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1299,25 +1299,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.334980354192922</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>104.0592449590765</v>
       </c>
       <c r="U11" t="n">
-        <v>120.9704070610764</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1618,7 +1618,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>161.4829654067772</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1669,7 +1669,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>41.63526321290148</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1773,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1824,7 +1824,7 @@
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.162506705236</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
         <v>239.5478617179984</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695846</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2010,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V20" t="n">
         <v>280.7771218515423</v>
@@ -2146,7 +2146,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598767</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2496,7 +2496,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T28" t="n">
-        <v>133.7328476307632</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>102.8228810500187</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>53.01664402787974</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3040,7 +3040,7 @@
         <v>380.1513995179662</v>
       </c>
       <c r="F32" t="n">
-        <v>405.0970751874158</v>
+        <v>405.0970751874159</v>
       </c>
       <c r="G32" t="n">
         <v>409.1427550991579</v>
@@ -3049,7 +3049,7 @@
         <v>292.8287938330249</v>
       </c>
       <c r="I32" t="n">
-        <v>39.79795921863035</v>
+        <v>39.79795921863038</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>107.4087912338802</v>
+        <v>107.4087912338803</v>
       </c>
       <c r="T32" t="n">
-        <v>202.1389995853251</v>
+        <v>202.1389995853246</v>
       </c>
       <c r="U32" t="n">
         <v>249.2162014046057</v>
       </c>
       <c r="V32" t="n">
-        <v>325.9732879158393</v>
+        <v>325.9732879158394</v>
       </c>
       <c r="W32" t="n">
-        <v>347.4619981631174</v>
+        <v>347.4619981631175</v>
       </c>
       <c r="X32" t="n">
-        <v>367.9521301241734</v>
+        <v>367.9521301241735</v>
       </c>
       <c r="Y32" t="n">
         <v>384.458968101758</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.9380082114093</v>
+        <v>178.0530096276417</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>12.03818069951884</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>87.15318211575173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>187.9900547771463</v>
@@ -3249,7 +3249,7 @@
         <v>250.3586727695324</v>
       </c>
       <c r="W34" t="n">
-        <v>284.7440277822954</v>
+        <v>284.7440277822955</v>
       </c>
       <c r="X34" t="n">
         <v>223.9306848347416</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V35" t="n">
         <v>280.7771218515423</v>
@@ -3444,7 +3444,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124572</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958415</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3681,7 +3681,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
         <v>334.9552334536692</v>
@@ -3757,7 +3757,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>145.5344894512805</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>70.91475087626227</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3988,10 +3988,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>248.8503753033325</v>
+        <v>343.1095859252045</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,25 +4137,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433909</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4197,7 +4197,7 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179992</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4810,10 +4810,10 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
         <v>13.8896123982571</v>
@@ -4834,22 +4834,22 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="E9" t="n">
         <v>8.2497170613261</v>
@@ -4886,49 +4886,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N9" t="n">
-        <v>7.082327113962777</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.80975218218115</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="C10" t="n">
-        <v>17.80975218218115</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="D10" t="n">
-        <v>17.80975218218115</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="E10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="G10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4983,31 +4983,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W10" t="n">
-        <v>24.75525293138463</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X10" t="n">
-        <v>17.80975218218115</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.80975218218115</v>
+        <v>3.91875068377421</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1657.204885135259</v>
+        <v>2020.741156976793</v>
       </c>
       <c r="C11" t="n">
-        <v>1335.692001142921</v>
+        <v>1699.228272984455</v>
       </c>
       <c r="D11" t="n">
-        <v>1024.875935484244</v>
+        <v>1388.412207325778</v>
       </c>
       <c r="E11" t="n">
-        <v>686.5373158340726</v>
+        <v>1050.073587675607</v>
       </c>
       <c r="F11" t="n">
-        <v>686.5373158340726</v>
+        <v>686.5373158340725</v>
       </c>
       <c r="G11" t="n">
-        <v>318.9144986271425</v>
+        <v>318.9144986271423</v>
       </c>
       <c r="H11" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398279</v>
       </c>
       <c r="I11" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398279</v>
       </c>
       <c r="J11" t="n">
-        <v>303.7527293069307</v>
+        <v>257.6596621430082</v>
       </c>
       <c r="K11" t="n">
-        <v>637.5721029967772</v>
+        <v>591.4790358328547</v>
       </c>
       <c r="L11" t="n">
-        <v>1088.606316245186</v>
+        <v>1042.513249081263</v>
       </c>
       <c r="M11" t="n">
-        <v>1622.138220917111</v>
+        <v>1576.045153753188</v>
       </c>
       <c r="N11" t="n">
-        <v>2168.917037975893</v>
+        <v>2122.82397081197</v>
       </c>
       <c r="O11" t="n">
-        <v>2671.88950885523</v>
+        <v>2625.796441691307</v>
       </c>
       <c r="P11" t="n">
-        <v>3066.663875212408</v>
+        <v>3020.570808048486</v>
       </c>
       <c r="Q11" t="n">
-        <v>3314.95023696809</v>
+        <v>3380.009492642337</v>
       </c>
       <c r="R11" t="n">
-        <v>3439.026559199146</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="S11" t="n">
-        <v>3376.185523674314</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="T11" t="n">
-        <v>3376.185523674314</v>
+        <v>3333.916210755628</v>
       </c>
       <c r="U11" t="n">
-        <v>3253.99319330959</v>
+        <v>3333.916210755628</v>
       </c>
       <c r="V11" t="n">
-        <v>2970.379938914093</v>
+        <v>3333.916210755628</v>
       </c>
       <c r="W11" t="n">
-        <v>2665.060916592052</v>
+        <v>3028.597188433587</v>
       </c>
       <c r="X11" t="n">
-        <v>2339.044791279046</v>
+        <v>2702.58106312058</v>
       </c>
       <c r="Y11" t="n">
-        <v>1996.355092251308</v>
+        <v>2359.891364092842</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.8122692329081</v>
+        <v>943.8122692329075</v>
       </c>
       <c r="C12" t="n">
-        <v>769.3592399517811</v>
+        <v>769.3592399517805</v>
       </c>
       <c r="D12" t="n">
-        <v>620.4248302905298</v>
+        <v>620.4248302905294</v>
       </c>
       <c r="E12" t="n">
-        <v>461.1873752850744</v>
+        <v>461.1873752850738</v>
       </c>
       <c r="F12" t="n">
-        <v>314.6528173119593</v>
+        <v>314.6528173119589</v>
       </c>
       <c r="G12" t="n">
         <v>178.2897171445774</v>
       </c>
       <c r="H12" t="n">
-        <v>87.78782278244495</v>
+        <v>87.78782278244478</v>
       </c>
       <c r="I12" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398279</v>
       </c>
       <c r="J12" t="n">
-        <v>162.4578006746003</v>
+        <v>162.4578006746004</v>
       </c>
       <c r="K12" t="n">
         <v>400.7219996549474</v>
       </c>
       <c r="L12" t="n">
-        <v>767.4201599676128</v>
+        <v>767.4201599676124</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.696485189929</v>
+        <v>1214.696485189928</v>
       </c>
       <c r="N12" t="n">
         <v>1688.219528744383</v>
@@ -5141,7 +5141,7 @@
         <v>2409.680399638541</v>
       </c>
       <c r="Q12" t="n">
-        <v>2567.321957285141</v>
+        <v>2567.32195728514</v>
       </c>
       <c r="R12" t="n">
         <v>2567.177603877656</v>
@@ -5159,10 +5159,10 @@
         <v>1781.876761951664</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.639405223463</v>
+        <v>1527.639405223462</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.78790501793</v>
+        <v>1319.787905017929</v>
       </c>
       <c r="Y12" t="n">
         <v>1112.027606252976</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.734664557094</v>
+        <v>761.7346645570938</v>
       </c>
       <c r="C13" t="n">
-        <v>640.2481145772603</v>
+        <v>640.2481145772601</v>
       </c>
       <c r="D13" t="n">
-        <v>537.5811081129979</v>
+        <v>537.5811081129978</v>
       </c>
       <c r="E13" t="n">
-        <v>437.1176474786781</v>
+        <v>437.1176474786779</v>
       </c>
       <c r="F13" t="n">
-        <v>337.677332928841</v>
+        <v>337.6773329288408</v>
       </c>
       <c r="G13" t="n">
-        <v>217.4241292516332</v>
+        <v>217.4241292516331</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6565754175643</v>
+        <v>118.6565754175642</v>
       </c>
       <c r="I13" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398279</v>
       </c>
       <c r="J13" t="n">
-        <v>160.4085488833251</v>
+        <v>160.408548883325</v>
       </c>
       <c r="K13" t="n">
-        <v>410.9011170846081</v>
+        <v>410.901117084608</v>
       </c>
       <c r="L13" t="n">
-        <v>773.966300785511</v>
+        <v>773.9663007855107</v>
       </c>
       <c r="M13" t="n">
-        <v>1164.628731637467</v>
+        <v>1164.628731637466</v>
       </c>
       <c r="N13" t="n">
         <v>1552.542493595738</v>
@@ -5235,7 +5235,7 @@
         <v>1699.018752931362</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.783897673549</v>
+        <v>1491.783897673548</v>
       </c>
       <c r="W13" t="n">
         <v>1249.816360584661</v>
@@ -5244,7 +5244,7 @@
         <v>1069.276442634717</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.9334964392604</v>
+        <v>895.9334964392601</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2020.741156976793</v>
+        <v>1820.318991606751</v>
       </c>
       <c r="C14" t="n">
-        <v>1699.228272984455</v>
+        <v>1498.806107614413</v>
       </c>
       <c r="D14" t="n">
-        <v>1388.412207325778</v>
+        <v>1187.990041955736</v>
       </c>
       <c r="E14" t="n">
-        <v>1050.073587675607</v>
+        <v>849.6514223055648</v>
       </c>
       <c r="F14" t="n">
         <v>686.5373158340726</v>
       </c>
       <c r="G14" t="n">
-        <v>318.9144986271425</v>
+        <v>318.9144986271423</v>
       </c>
       <c r="H14" t="n">
-        <v>68.78053118398292</v>
+        <v>68.7805311839828</v>
       </c>
       <c r="I14" t="n">
-        <v>68.78053118398292</v>
+        <v>68.7805311839828</v>
       </c>
       <c r="J14" t="n">
-        <v>368.8119849811831</v>
+        <v>368.8119849811774</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6313586710297</v>
+        <v>702.6313586710239</v>
       </c>
       <c r="L14" t="n">
-        <v>1153.665571919439</v>
+        <v>1153.665571919433</v>
       </c>
       <c r="M14" t="n">
-        <v>1687.197476591363</v>
+        <v>1687.197476591357</v>
       </c>
       <c r="N14" t="n">
-        <v>2233.976293650146</v>
+        <v>2233.97629365014</v>
       </c>
       <c r="O14" t="n">
-        <v>2736.948764529483</v>
+        <v>2736.948764529477</v>
       </c>
       <c r="P14" t="n">
-        <v>3131.723130886661</v>
+        <v>3131.723130886655</v>
       </c>
       <c r="Q14" t="n">
-        <v>3380.009492642343</v>
+        <v>3380.009492642337</v>
       </c>
       <c r="R14" t="n">
-        <v>3439.026559199146</v>
+        <v>3439.02655919914</v>
       </c>
       <c r="S14" t="n">
-        <v>3376.185523674314</v>
+        <v>3439.02655919914</v>
       </c>
       <c r="T14" t="n">
-        <v>3217.657409006609</v>
+        <v>3280.498444531435</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.576565228519</v>
+        <v>3074.417600753345</v>
       </c>
       <c r="V14" t="n">
-        <v>2727.963310833022</v>
+        <v>2790.804346357847</v>
       </c>
       <c r="W14" t="n">
-        <v>2685.907489405849</v>
+        <v>2485.485324035807</v>
       </c>
       <c r="X14" t="n">
-        <v>2359.891364092842</v>
+        <v>2159.4691987228</v>
       </c>
       <c r="Y14" t="n">
-        <v>2359.891364092842</v>
+        <v>2159.4691987228</v>
       </c>
     </row>
     <row r="15">
@@ -5342,43 +5342,43 @@
         <v>620.4248302905298</v>
       </c>
       <c r="E15" t="n">
-        <v>461.1873752850744</v>
+        <v>461.1873752850743</v>
       </c>
       <c r="F15" t="n">
-        <v>314.6528173119593</v>
+        <v>314.6528173119592</v>
       </c>
       <c r="G15" t="n">
-        <v>178.2897171445774</v>
+        <v>178.2897171445773</v>
       </c>
       <c r="H15" t="n">
-        <v>87.78782278244495</v>
+        <v>87.78782278244483</v>
       </c>
       <c r="I15" t="n">
-        <v>68.78053118398292</v>
+        <v>68.7805311839828</v>
       </c>
       <c r="J15" t="n">
-        <v>162.4578006746003</v>
+        <v>162.4578006746002</v>
       </c>
       <c r="K15" t="n">
-        <v>400.7219996549476</v>
+        <v>400.7219996549473</v>
       </c>
       <c r="L15" t="n">
-        <v>767.420159967613</v>
+        <v>767.4201599676127</v>
       </c>
       <c r="M15" t="n">
         <v>1214.696485189929</v>
       </c>
       <c r="N15" t="n">
-        <v>1688.219528744384</v>
+        <v>1688.219528744383</v>
       </c>
       <c r="O15" t="n">
-        <v>2099.180808162439</v>
+        <v>2099.180808162438</v>
       </c>
       <c r="P15" t="n">
-        <v>2409.680399638542</v>
+        <v>2409.680399638541</v>
       </c>
       <c r="Q15" t="n">
-        <v>2567.321957285141</v>
+        <v>2567.32195728514</v>
       </c>
       <c r="R15" t="n">
         <v>2567.177603877656</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.7346645570939</v>
+        <v>761.7346645570938</v>
       </c>
       <c r="C16" t="n">
-        <v>640.2481145772603</v>
+        <v>640.2481145772601</v>
       </c>
       <c r="D16" t="n">
-        <v>537.5811081129979</v>
+        <v>537.5811081129978</v>
       </c>
       <c r="E16" t="n">
         <v>437.117647478678</v>
@@ -5427,25 +5427,25 @@
         <v>337.6773329288409</v>
       </c>
       <c r="G16" t="n">
-        <v>217.4241292516332</v>
+        <v>217.4241292516331</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6565754175643</v>
+        <v>118.6565754175642</v>
       </c>
       <c r="I16" t="n">
-        <v>68.78053118398292</v>
+        <v>68.7805311839828</v>
       </c>
       <c r="J16" t="n">
-        <v>160.4085488833251</v>
+        <v>160.408548883325</v>
       </c>
       <c r="K16" t="n">
-        <v>410.9011170846082</v>
+        <v>410.901117084608</v>
       </c>
       <c r="L16" t="n">
-        <v>773.9663007855111</v>
+        <v>773.9663007855108</v>
       </c>
       <c r="M16" t="n">
-        <v>1164.628731637467</v>
+        <v>1164.628731637466</v>
       </c>
       <c r="N16" t="n">
         <v>1552.542493595738</v>
@@ -5460,19 +5460,19 @@
         <v>2301.606044859545</v>
       </c>
       <c r="R16" t="n">
-        <v>2259.225220565147</v>
+        <v>2259.225220565146</v>
       </c>
       <c r="S16" t="n">
         <v>2114.988969340046</v>
       </c>
       <c r="T16" t="n">
-        <v>1940.671986857646</v>
+        <v>1940.671986857645</v>
       </c>
       <c r="U16" t="n">
-        <v>1699.018752931363</v>
+        <v>1699.018752931362</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.783897673549</v>
+        <v>1491.783897673548</v>
       </c>
       <c r="W16" t="n">
         <v>1249.816360584661</v>
@@ -5481,7 +5481,7 @@
         <v>1069.276442634717</v>
       </c>
       <c r="Y16" t="n">
-        <v>895.9334964392604</v>
+        <v>895.9334964392601</v>
       </c>
     </row>
     <row r="17">
@@ -5509,49 +5509,49 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H17" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I17" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J17" t="n">
-        <v>437.4316968760677</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K17" t="n">
-        <v>1002.369923216574</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L17" t="n">
-        <v>1453.404136464983</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M17" t="n">
-        <v>1986.936041136908</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N17" t="n">
-        <v>2533.71485819569</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O17" t="n">
-        <v>3036.687329075027</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P17" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q17" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R17" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S17" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U17" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V17" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W17" t="n">
         <v>3040.963574146293</v>
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C18" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D18" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E18" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F18" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G18" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H18" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I18" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J18" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K18" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L18" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M18" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O18" t="n">
         <v>2111.547193875144</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C19" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D19" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E19" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F19" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G19" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H19" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I19" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J19" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K19" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L19" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M19" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N19" t="n">
         <v>1564.908879308444</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C20" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D20" t="n">
         <v>1400.778593038484</v>
@@ -5740,52 +5740,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F20" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G20" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H20" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I20" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J20" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K20" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L20" t="n">
-        <v>1468.364237198916</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M20" t="n">
-        <v>2305.516762226675</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N20" t="n">
-        <v>2852.295579285458</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O20" t="n">
-        <v>3355.268050164795</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P20" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q20" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R20" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S20" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T20" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U20" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V20" t="n">
         <v>3346.282596468334</v>
@@ -5794,7 +5794,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X20" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y20" t="n">
         <v>2372.257749805548</v>
@@ -5828,7 +5828,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I21" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J21" t="n">
         <v>174.8241863873065</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C22" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D22" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E22" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F22" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G22" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H22" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I22" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J22" t="n">
         <v>172.7749345960314</v>
@@ -5916,10 +5916,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L22" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M22" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N22" t="n">
         <v>1564.908879308444</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
         <v>270.0260478557146</v>
@@ -5995,46 +5995,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L23" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.89614187084</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N23" t="n">
-        <v>2548.674958929623</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164795</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2517.474464532007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>2395.987914552173</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
-        <v>2293.32090808791</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>2192.85744745359</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>2093.417132903753</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>1973.163929226545</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>1824.520331158895</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
-        <v>1916.148348858238</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K25" t="n">
-        <v>2166.640917059521</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L25" t="n">
-        <v>2529.706100760423</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M25" t="n">
-        <v>2920.368531612379</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
-        <v>3308.28229357065</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>3654.11727774347</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>3933.230163429536</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R25" t="n">
-        <v>4014.965020540059</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S25" t="n">
-        <v>3870.728769314959</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>3696.411786832558</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>3454.758552906275</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>3247.523697648461</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>3005.556160559574</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>2825.01624260963</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>2651.673296414173</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6214,43 +6214,43 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272053</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330835</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
         <v>4667.761053946816</v>
@@ -6259,13 +6259,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>578.4172407837245</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1821.259781629185</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1532.156914754829</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1277.472426548942</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>988.0552565119816</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>760.0657056139643</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.0657056139643</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6463,19 +6463,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6496,13 +6496,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3190.066969701439</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C31" t="n">
-        <v>3021.130786773532</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D31" t="n">
-        <v>3021.130786773532</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E31" t="n">
-        <v>3021.130786773532</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F31" t="n">
-        <v>3021.130786773532</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.051722419721</v>
+        <v>1902.791300419977</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246547</v>
+        <v>1902.791300419977</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.599222816073</v>
+        <v>1681.024684989503</v>
       </c>
       <c r="U31" t="n">
-        <v>4364.599222816073</v>
+        <v>1391.921818115147</v>
       </c>
       <c r="V31" t="n">
-        <v>4109.914734610186</v>
+        <v>1137.23732990926</v>
       </c>
       <c r="W31" t="n">
-        <v>3820.497564573226</v>
+        <v>1137.23732990926</v>
       </c>
       <c r="X31" t="n">
-        <v>3592.508013675209</v>
+        <v>909.2477790112422</v>
       </c>
       <c r="Y31" t="n">
-        <v>3371.715434531679</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="32">
@@ -6676,58 +6676,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2361.087693354003</v>
+        <v>2361.087693354002</v>
       </c>
       <c r="C32" t="n">
-        <v>1993.922116367425</v>
+        <v>1993.922116367424</v>
       </c>
       <c r="D32" t="n">
-        <v>1637.453357714507</v>
+        <v>1637.453357714508</v>
       </c>
       <c r="E32" t="n">
         <v>1253.462045070097</v>
       </c>
       <c r="F32" t="n">
-        <v>844.2730802343233</v>
+        <v>844.2730802343237</v>
       </c>
       <c r="G32" t="n">
         <v>430.9975700331537</v>
       </c>
       <c r="H32" t="n">
-        <v>135.2109095957548</v>
+        <v>135.2109095957549</v>
       </c>
       <c r="I32" t="n">
         <v>95.0109507890575</v>
       </c>
       <c r="J32" t="n">
-        <v>451.295730768436</v>
+        <v>388.6050098220159</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.019062903736</v>
+        <v>1043.328341957315</v>
       </c>
       <c r="L32" t="n">
-        <v>1559.421810879977</v>
+        <v>1494.362555205724</v>
       </c>
       <c r="M32" t="n">
-        <v>2092.953715551902</v>
+        <v>2027.894459877649</v>
       </c>
       <c r="N32" t="n">
-        <v>2639.732532610684</v>
+        <v>2574.673276936431</v>
       </c>
       <c r="O32" t="n">
-        <v>3519.697182940139</v>
+        <v>3454.637927265886</v>
       </c>
       <c r="P32" t="n">
-        <v>4233.052270387085</v>
+        <v>4167.993014712832</v>
       </c>
       <c r="Q32" t="n">
-        <v>4691.530472896073</v>
+        <v>4626.47121722182</v>
       </c>
       <c r="R32" t="n">
         <v>4750.547539452875</v>
       </c>
       <c r="S32" t="n">
-        <v>4642.053810933804</v>
+        <v>4642.053810933803</v>
       </c>
       <c r="T32" t="n">
         <v>4437.873003271859</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.0109507890575</v>
+        <v>107.17072927342</v>
       </c>
       <c r="C34" t="n">
-        <v>95.0109507890575</v>
+        <v>107.17072927342</v>
       </c>
       <c r="D34" t="n">
-        <v>95.0109507890575</v>
+        <v>107.17072927342</v>
       </c>
       <c r="E34" t="n">
-        <v>95.0109507890575</v>
+        <v>107.17072927342</v>
       </c>
       <c r="F34" t="n">
-        <v>95.0109507890575</v>
+        <v>107.17072927342</v>
       </c>
       <c r="G34" t="n">
-        <v>95.0109507890575</v>
+        <v>107.17072927342</v>
       </c>
       <c r="H34" t="n">
-        <v>95.0109507890575</v>
+        <v>107.17072927342</v>
       </c>
       <c r="I34" t="n">
         <v>95.0109507890575</v>
@@ -6861,49 +6861,49 @@
         <v>141.8947640847457</v>
       </c>
       <c r="K34" t="n">
-        <v>347.6431278823748</v>
+        <v>347.6431278823746</v>
       </c>
       <c r="L34" t="n">
-        <v>665.9641071796236</v>
+        <v>665.9641071796234</v>
       </c>
       <c r="M34" t="n">
         <v>1011.882333627925</v>
       </c>
       <c r="N34" t="n">
-        <v>1355.051891182543</v>
+        <v>1355.051891182542</v>
       </c>
       <c r="O34" t="n">
-        <v>1656.142670951709</v>
+        <v>1656.142670951708</v>
       </c>
       <c r="P34" t="n">
-        <v>1890.511352234121</v>
+        <v>1890.51135223412</v>
       </c>
       <c r="Q34" t="n">
-        <v>1969.882829235388</v>
+        <v>1969.882829235387</v>
       </c>
       <c r="R34" t="n">
-        <v>1881.84931194675</v>
+        <v>1969.882829235387</v>
       </c>
       <c r="S34" t="n">
-        <v>1691.96036772741</v>
+        <v>1779.993885016048</v>
       </c>
       <c r="T34" t="n">
-        <v>1471.99069225077</v>
+        <v>1560.024209539408</v>
       </c>
       <c r="U34" t="n">
-        <v>1184.684765330247</v>
+        <v>1272.718282618885</v>
       </c>
       <c r="V34" t="n">
-        <v>931.7972170781943</v>
+        <v>1019.830734366832</v>
       </c>
       <c r="W34" t="n">
-        <v>644.1769869950676</v>
+        <v>732.2105042837054</v>
       </c>
       <c r="X34" t="n">
-        <v>417.9843760508842</v>
+        <v>506.0178933395219</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.9887368611881</v>
+        <v>287.0222541498258</v>
       </c>
     </row>
     <row r="35">
@@ -6931,43 +6931,43 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K35" t="n">
-        <v>1045.699547878784</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127193</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799117</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.0444828579</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737237</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863831</v>
@@ -7013,7 +7013,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7116,7 +7116,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
         <v>2271.591606277852</v>
@@ -7153,7 +7153,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
@@ -7162,40 +7162,40 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>393.2994530991701</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K38" t="n">
-        <v>727.1188267890166</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L38" t="n">
-        <v>1178.153040037425</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M38" t="n">
-        <v>1711.68494470935</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N38" t="n">
-        <v>2258.463761768132</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O38" t="n">
-        <v>2761.436232647469</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
@@ -7250,7 +7250,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7329,7 +7329,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1709.925091318116</v>
+        <v>1770.607189533634</v>
       </c>
       <c r="C41" t="n">
-        <v>1388.412207325778</v>
+        <v>1449.094305541295</v>
       </c>
       <c r="D41" t="n">
-        <v>1388.412207325778</v>
+        <v>1138.278239882618</v>
       </c>
       <c r="E41" t="n">
-        <v>1050.073587675607</v>
+        <v>799.9396202324472</v>
       </c>
       <c r="F41" t="n">
-        <v>686.5373158340726</v>
+        <v>436.403348390913</v>
       </c>
       <c r="G41" t="n">
-        <v>318.9144986271425</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="H41" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="I41" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="J41" t="n">
-        <v>303.7527293069307</v>
+        <v>257.6596621430082</v>
       </c>
       <c r="K41" t="n">
-        <v>637.5721029967772</v>
+        <v>702.631358671023</v>
       </c>
       <c r="L41" t="n">
-        <v>1088.606316245186</v>
+        <v>1153.665571919432</v>
       </c>
       <c r="M41" t="n">
-        <v>1622.138220917111</v>
+        <v>1687.197476591356</v>
       </c>
       <c r="N41" t="n">
-        <v>2168.917037975893</v>
+        <v>2233.976293650139</v>
       </c>
       <c r="O41" t="n">
-        <v>2671.88950885523</v>
+        <v>2736.948764529476</v>
       </c>
       <c r="P41" t="n">
-        <v>3066.663875212408</v>
+        <v>3131.723130886654</v>
       </c>
       <c r="Q41" t="n">
-        <v>3314.95023696809</v>
+        <v>3380.009492642336</v>
       </c>
       <c r="R41" t="n">
-        <v>3439.026559199146</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="S41" t="n">
-        <v>3376.185523674314</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="T41" t="n">
-        <v>3229.180988875041</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="U41" t="n">
-        <v>3023.100145096951</v>
+        <v>3367.395497707965</v>
       </c>
       <c r="V41" t="n">
-        <v>3023.100145096951</v>
+        <v>3083.782243312467</v>
       </c>
       <c r="W41" t="n">
-        <v>2717.78112277491</v>
+        <v>2778.463220990427</v>
       </c>
       <c r="X41" t="n">
-        <v>2391.764997461903</v>
+        <v>2452.44709567742</v>
       </c>
       <c r="Y41" t="n">
-        <v>2049.075298434165</v>
+        <v>2109.757396649682</v>
       </c>
     </row>
     <row r="42">
@@ -7475,31 +7475,31 @@
         <v>620.4248302905298</v>
       </c>
       <c r="E42" t="n">
-        <v>461.1873752850744</v>
+        <v>461.1873752850743</v>
       </c>
       <c r="F42" t="n">
-        <v>314.6528173119593</v>
+        <v>314.6528173119592</v>
       </c>
       <c r="G42" t="n">
-        <v>178.2897171445774</v>
+        <v>178.2897171445773</v>
       </c>
       <c r="H42" t="n">
-        <v>87.78782278244495</v>
+        <v>87.78782278244481</v>
       </c>
       <c r="I42" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="J42" t="n">
-        <v>162.4578006746003</v>
+        <v>162.4578006746001</v>
       </c>
       <c r="K42" t="n">
-        <v>400.7219996549474</v>
+        <v>400.7219996549472</v>
       </c>
       <c r="L42" t="n">
-        <v>767.4201599676128</v>
+        <v>767.4201599676126</v>
       </c>
       <c r="M42" t="n">
-        <v>1214.696485189929</v>
+        <v>1214.696485189928</v>
       </c>
       <c r="N42" t="n">
         <v>1688.219528744383</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>761.7346645570939</v>
+        <v>761.7346645570935</v>
       </c>
       <c r="C43" t="n">
-        <v>640.2481145772603</v>
+        <v>640.2481145772599</v>
       </c>
       <c r="D43" t="n">
-        <v>537.5811081129979</v>
+        <v>537.5811081129975</v>
       </c>
       <c r="E43" t="n">
-        <v>437.117647478678</v>
+        <v>437.1176474786778</v>
       </c>
       <c r="F43" t="n">
-        <v>337.6773329288409</v>
+        <v>337.6773329288407</v>
       </c>
       <c r="G43" t="n">
-        <v>217.4241292516332</v>
+        <v>217.424129251633</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6565754175643</v>
+        <v>118.6565754175641</v>
       </c>
       <c r="I43" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="J43" t="n">
-        <v>160.4085488833251</v>
+        <v>160.408548883325</v>
       </c>
       <c r="K43" t="n">
-        <v>410.9011170846081</v>
+        <v>410.901117084608</v>
       </c>
       <c r="L43" t="n">
-        <v>773.966300785511</v>
+        <v>773.9663007855108</v>
       </c>
       <c r="M43" t="n">
-        <v>1164.628731637467</v>
+        <v>1164.628731637466</v>
       </c>
       <c r="N43" t="n">
         <v>1552.542493595738</v>
@@ -7593,7 +7593,7 @@
         <v>2301.606044859545</v>
       </c>
       <c r="R43" t="n">
-        <v>2259.225220565146</v>
+        <v>2259.225220565147</v>
       </c>
       <c r="S43" t="n">
         <v>2114.988969340046</v>
@@ -7614,7 +7614,7 @@
         <v>1069.276442634717</v>
       </c>
       <c r="Y43" t="n">
-        <v>895.9334964392604</v>
+        <v>895.9334964392599</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1904.482355227775</v>
+        <v>1636.157407246717</v>
       </c>
       <c r="C44" t="n">
-        <v>1582.969471235436</v>
+        <v>1314.644523254379</v>
       </c>
       <c r="D44" t="n">
-        <v>1272.153405576759</v>
+        <v>1003.828457595702</v>
       </c>
       <c r="E44" t="n">
-        <v>933.8147859265883</v>
+        <v>665.4898379455307</v>
       </c>
       <c r="F44" t="n">
-        <v>570.2785140850541</v>
+        <v>665.4898379455307</v>
       </c>
       <c r="G44" t="n">
-        <v>318.9144986271425</v>
+        <v>318.9144986271423</v>
       </c>
       <c r="H44" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="I44" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="J44" t="n">
-        <v>257.6596621430083</v>
+        <v>257.6596621430082</v>
       </c>
       <c r="K44" t="n">
-        <v>637.5721029967772</v>
+        <v>702.631358671023</v>
       </c>
       <c r="L44" t="n">
-        <v>1088.606316245186</v>
+        <v>1153.665571919432</v>
       </c>
       <c r="M44" t="n">
-        <v>1622.138220917111</v>
+        <v>1687.197476591356</v>
       </c>
       <c r="N44" t="n">
-        <v>2168.917037975893</v>
+        <v>2233.976293650139</v>
       </c>
       <c r="O44" t="n">
-        <v>2671.88950885523</v>
+        <v>2736.948764529476</v>
       </c>
       <c r="P44" t="n">
-        <v>3066.663875212408</v>
+        <v>3131.723130886654</v>
       </c>
       <c r="Q44" t="n">
-        <v>3314.95023696809</v>
+        <v>3380.009492642336</v>
       </c>
       <c r="R44" t="n">
-        <v>3439.026559199146</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="S44" t="n">
-        <v>3376.185523674314</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="T44" t="n">
-        <v>3217.657409006609</v>
+        <v>3439.026559199139</v>
       </c>
       <c r="U44" t="n">
-        <v>3217.657409006609</v>
+        <v>3232.945715421049</v>
       </c>
       <c r="V44" t="n">
-        <v>3217.657409006609</v>
+        <v>2949.332461025551</v>
       </c>
       <c r="W44" t="n">
-        <v>2912.338386684568</v>
+        <v>2644.01343870351</v>
       </c>
       <c r="X44" t="n">
-        <v>2586.322261371562</v>
+        <v>2317.997313390504</v>
       </c>
       <c r="Y44" t="n">
-        <v>2243.632562343823</v>
+        <v>1975.307614362766</v>
       </c>
     </row>
     <row r="45">
@@ -7712,28 +7712,28 @@
         <v>620.4248302905298</v>
       </c>
       <c r="E45" t="n">
-        <v>461.1873752850744</v>
+        <v>461.1873752850743</v>
       </c>
       <c r="F45" t="n">
-        <v>314.6528173119593</v>
+        <v>314.6528173119592</v>
       </c>
       <c r="G45" t="n">
-        <v>178.2897171445774</v>
+        <v>178.2897171445773</v>
       </c>
       <c r="H45" t="n">
-        <v>87.78782278244495</v>
+        <v>87.78782278244481</v>
       </c>
       <c r="I45" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="J45" t="n">
-        <v>162.4578006746003</v>
+        <v>162.4578006746001</v>
       </c>
       <c r="K45" t="n">
-        <v>400.7219996549471</v>
+        <v>400.7219996549472</v>
       </c>
       <c r="L45" t="n">
-        <v>767.4201599676124</v>
+        <v>767.4201599676126</v>
       </c>
       <c r="M45" t="n">
         <v>1214.696485189928</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>761.7346645570942</v>
+        <v>761.7346645570935</v>
       </c>
       <c r="C46" t="n">
-        <v>640.2481145772606</v>
+        <v>640.2481145772599</v>
       </c>
       <c r="D46" t="n">
-        <v>537.5811081129982</v>
+        <v>537.5811081129975</v>
       </c>
       <c r="E46" t="n">
-        <v>437.1176474786784</v>
+        <v>437.1176474786778</v>
       </c>
       <c r="F46" t="n">
-        <v>337.6773329288409</v>
+        <v>337.6773329288407</v>
       </c>
       <c r="G46" t="n">
-        <v>217.4241292516332</v>
+        <v>217.424129251633</v>
       </c>
       <c r="H46" t="n">
-        <v>118.6565754175643</v>
+        <v>118.6565754175641</v>
       </c>
       <c r="I46" t="n">
-        <v>68.78053118398292</v>
+        <v>68.78053118398277</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4085488833251</v>
+        <v>160.408548883325</v>
       </c>
       <c r="K46" t="n">
-        <v>410.9011170846081</v>
+        <v>410.901117084608</v>
       </c>
       <c r="L46" t="n">
-        <v>773.966300785511</v>
+        <v>773.9663007855108</v>
       </c>
       <c r="M46" t="n">
         <v>1164.628731637466</v>
@@ -7851,7 +7851,7 @@
         <v>1069.276442634717</v>
       </c>
       <c r="Y46" t="n">
-        <v>895.9334964392606</v>
+        <v>895.9334964392599</v>
       </c>
     </row>
   </sheetData>
@@ -8458,13 +8458,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>236.9742571633982</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>46.55865370093164</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>112.2750735739079</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.2750735739138</v>
+        <v>112.2750735739083</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>233.4533865158177</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>21.13839585591461</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>306.6874953089243</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>19.40311602546575</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>306.6874953089242</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L26" t="n">
-        <v>241.9338129178253</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>105.7726546201342</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>2.392459321043304</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K35" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5185911550055</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>46.55865370093164</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>112.2750735739074</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>46.55865370093164</v>
+        <v>112.2750735739074</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>52.88358856195109</v>
       </c>
       <c r="U11" t="n">
-        <v>83.04962827923306</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>198.4179437163417</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>260.630568885919</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T28" t="n">
-        <v>85.81610164540604</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>63.20292720900949</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>35.91550864216759</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.11500141623245</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.4678505443322</v>
+        <v>165.4678505443323</v>
       </c>
       <c r="D34" t="n">
         <v>146.8365024639168</v>
@@ -25086,16 +25086,16 @@
         <v>144.6549920922736</v>
       </c>
       <c r="F34" t="n">
-        <v>143.6420774686356</v>
+        <v>143.6420774686357</v>
       </c>
       <c r="G34" t="n">
-        <v>164.2468377047326</v>
+        <v>164.2468377047327</v>
       </c>
       <c r="H34" t="n">
         <v>142.9760443600252</v>
       </c>
       <c r="I34" t="n">
-        <v>94.57344985554249</v>
+        <v>82.53526915602369</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>87.15318211575176</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T41" t="n">
-        <v>11.40834406974713</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>133.1052844640471</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>115.0962137315284</v>
+        <v>20.83700310965639</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610967.1486524981</v>
+        <v>610967.1486524976</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610967.148652498</v>
+        <v>610967.1486524976</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>665026.9422116743</v>
+        <v>665026.9422116744</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>665026.9422116743</v>
+        <v>665026.9422116744</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>665026.9422116743</v>
+        <v>665026.9422116744</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>665026.9422116744</v>
+        <v>665026.9422116743</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610967.1486524981</v>
+        <v>610967.1486524974</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610967.148652498</v>
+        <v>610967.1486524974</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.430249112</v>
+        <v>798794.4302491127</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491125</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="D2" t="n">
-        <v>799861.7300691411</v>
+        <v>799861.7300691408</v>
       </c>
       <c r="E2" t="n">
-        <v>753958.0011003123</v>
+        <v>753958.0011003118</v>
       </c>
       <c r="F2" t="n">
-        <v>753958.0011003123</v>
+        <v>753958.0011003114</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="J2" t="n">
-        <v>774309.4844296169</v>
+        <v>774309.4844296173</v>
       </c>
       <c r="K2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="L2" t="n">
-        <v>775301.927129482</v>
+        <v>775301.9271294825</v>
       </c>
       <c r="M2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="O2" t="n">
-        <v>753958.0011003122</v>
+        <v>753958.0011003116</v>
       </c>
       <c r="P2" t="n">
-        <v>753958.0011003125</v>
+        <v>753958.0011003118</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>1167761.361894304</v>
+        <v>1167761.361894303</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>42368.01035083867</v>
+        <v>42368.0103508391</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1423.176443436484</v>
+        <v>1423.176443436455</v>
       </c>
       <c r="M3" t="n">
-        <v>205511.0296366641</v>
+        <v>205511.0296366637</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>419946.1207682426</v>
       </c>
       <c r="E4" t="n">
-        <v>59527.11471211558</v>
+        <v>59527.11471211539</v>
       </c>
       <c r="F4" t="n">
-        <v>59527.11471211556</v>
+        <v>59527.11471211541</v>
       </c>
       <c r="G4" t="n">
-        <v>76652.56781120098</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="H4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120102</v>
       </c>
       <c r="I4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120102</v>
       </c>
       <c r="J4" t="n">
-        <v>49388.53342030738</v>
+        <v>49388.53342030739</v>
       </c>
       <c r="K4" t="n">
         <v>49388.53342030739</v>
       </c>
       <c r="L4" t="n">
-        <v>50424.48720748202</v>
+        <v>50424.48720748197</v>
       </c>
       <c r="M4" t="n">
         <v>76652.56781120099</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120098</v>
       </c>
       <c r="O4" t="n">
-        <v>59527.11471211557</v>
+        <v>59527.11471211542</v>
       </c>
       <c r="P4" t="n">
-        <v>59527.11471211558</v>
+        <v>59527.11471211542</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>79979.48853314937</v>
+        <v>79979.48853314927</v>
       </c>
       <c r="F5" t="n">
-        <v>79979.48853314939</v>
+        <v>79979.48853314927</v>
       </c>
       <c r="G5" t="n">
         <v>89377.94167480612</v>
@@ -26493,7 +26493,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>79979.48853314937</v>
+        <v>79979.48853314927</v>
       </c>
       <c r="P5" t="n">
-        <v>79979.48853314937</v>
+        <v>79979.48853314927</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345019.0613595807</v>
+        <v>344974.9255809003</v>
       </c>
       <c r="C6" t="n">
-        <v>345019.0613595813</v>
+        <v>344974.9255808997</v>
       </c>
       <c r="D6" t="n">
-        <v>343734.0396310547</v>
+        <v>343717.2705144252</v>
       </c>
       <c r="E6" t="n">
-        <v>-553309.9640392563</v>
+        <v>-554503.7518473936</v>
       </c>
       <c r="F6" t="n">
-        <v>614451.3978550474</v>
+        <v>613257.6100469093</v>
       </c>
       <c r="G6" t="n">
-        <v>592117.2057808305</v>
+        <v>592117.2057808295</v>
       </c>
       <c r="H6" t="n">
-        <v>634485.2161316685</v>
+        <v>634485.2161316692</v>
       </c>
       <c r="I6" t="n">
-        <v>634485.2161316692</v>
+        <v>634485.2161316695</v>
       </c>
       <c r="J6" t="n">
-        <v>581395.3405968664</v>
+        <v>580723.3856946089</v>
       </c>
       <c r="K6" t="n">
-        <v>628537.432755596</v>
+        <v>627865.4778533384</v>
       </c>
       <c r="L6" t="n">
-        <v>627339.2525304168</v>
+        <v>626692.744876874</v>
       </c>
       <c r="M6" t="n">
-        <v>428974.1864950053</v>
+        <v>428974.1864950057</v>
       </c>
       <c r="N6" t="n">
-        <v>634485.2161316685</v>
+        <v>634485.2161316695</v>
       </c>
       <c r="O6" t="n">
-        <v>614451.3978550473</v>
+        <v>613257.6100469095</v>
       </c>
       <c r="P6" t="n">
-        <v>614451.3978550475</v>
+        <v>613257.6100469097</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.778970554295568</v>
+      </c>
+      <c r="M2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.778970554295605</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26749,10 +26749,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26798,19 +26798,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>859.7566397997864</v>
+        <v>859.7566397997848</v>
       </c>
       <c r="F4" t="n">
-        <v>859.7566397997864</v>
+        <v>859.7566397997849</v>
       </c>
       <c r="G4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="H4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26822,16 +26822,16 @@
         <v>1187.636884863219</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>859.7566397997864</v>
+        <v>859.7566397997847</v>
       </c>
       <c r="P4" t="n">
-        <v>859.7566397997864</v>
+        <v>859.7566397997847</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="M2" t="n">
-        <v>45.19616606429695</v>
+        <v>45.196166064297</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>852.880594058075</v>
+        <v>852.8805940580734</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>154.5798214088281</v>
+        <v>154.5798214088297</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>679.5801704034707</v>
+        <v>679.5801704034691</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>852.880594058075</v>
+        <v>852.8805940580734</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>154.5798214088281</v>
+        <v>154.5798214088297</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0394284748319</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27940,7 +27940,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>166.3733413407963</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>246.385153397878</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>143.0989822923762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>15.39344608417142</v>
+        <v>18.93451147168993</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28079,7 +28079,7 @@
         <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O19" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="C32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="D32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="E32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="F32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="G32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="H32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="I32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="T32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="U32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="V32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="W32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="X32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="C34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="D34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="E34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="F34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="G34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="H34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="I34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="J34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="K34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="L34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="M34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="N34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="O34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="P34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="R34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="S34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="T34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="U34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="V34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="W34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.778970554295605</v>
+        <v>1.778970554295568</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30425,7 +30425,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R40" t="n">
         <v>46.97513661859256</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32569,7 +32569,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -34225,7 +34225,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970245</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002927</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35178,13 +35178,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>6.876045741711437</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>237.3456546696442</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35430,10 +35430,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>363.0693783776274</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>303.0620745426265</v>
+        <v>303.0620745426208</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35816,10 +35816,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>570.6446730712183</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>529.1913967441337</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887903</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
@@ -36123,22 +36123,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>845.6086111391511</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>418.1651022448376</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36217,7 +36217,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36287,10 +36287,10 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120761</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36363,16 +36363,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>825.9229012776183</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>814.7404961971433</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36597,10 +36597,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L26" t="n">
-        <v>697.5239273101574</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36615,10 +36615,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>296.5596555888468</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>457.9825737133755</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.35738716736184</v>
+        <v>47.35738716736179</v>
       </c>
       <c r="K34" t="n">
-        <v>207.8266300986152</v>
+        <v>207.8266300986151</v>
       </c>
       <c r="L34" t="n">
         <v>321.5363427244937</v>
@@ -37241,13 +37241,13 @@
         <v>346.6359167218357</v>
       </c>
       <c r="O34" t="n">
-        <v>304.1321007769354</v>
+        <v>304.1321007769353</v>
       </c>
       <c r="P34" t="n">
         <v>236.736041699406</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.17320909218927</v>
+        <v>80.17320909218923</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K35" t="n">
-        <v>614.4119707098145</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37323,7 +37323,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37475,7 +37475,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>315.3055921237181</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37721,7 +37721,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>237.3456546696442</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>449.4663601293079</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -37949,7 +37949,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>383.7499402563321</v>
+        <v>449.4663601293079</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
